--- a/data/trans_orig/IP28_R-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/IP28_R-Estudios-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B4F5C183-F939-4A54-885A-E18E90FE3C93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A9B192A0-8FF3-49B7-ADAE-4FD6885F1573}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{08AFBAA1-95D4-48FB-B3A6-345B2ADB5F93}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{59A08501-C72F-40C6-B26B-0ACC1EA8B3D7}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="234">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="248">
   <si>
     <t>Menores según si su peso es bastante mayor de lo normal en relación con su altura en 2007 (Tasa respuesta: 98,72%)</t>
   </si>
@@ -104,643 +104,685 @@
     <t>3,2%</t>
   </si>
   <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>7,95%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>6,17%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>5,06%</t>
+  </si>
+  <si>
+    <t>96,8%</t>
+  </si>
+  <si>
+    <t>92,05%</t>
+  </si>
+  <si>
+    <t>99,21%</t>
+  </si>
+  <si>
+    <t>98,18%</t>
+  </si>
+  <si>
+    <t>93,83%</t>
+  </si>
+  <si>
+    <t>97,5%</t>
+  </si>
+  <si>
+    <t>94,94%</t>
+  </si>
+  <si>
+    <t>99,07%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>98,85%</t>
+  </si>
+  <si>
+    <t>97,77%</t>
+  </si>
+  <si>
+    <t>99,56%</t>
+  </si>
+  <si>
+    <t>98,59%</t>
+  </si>
+  <si>
+    <t>97,34%</t>
+  </si>
+  <si>
+    <t>99,36%</t>
+  </si>
+  <si>
+    <t>98,73%</t>
+  </si>
+  <si>
+    <t>97,97%</t>
+  </si>
+  <si>
+    <t>99,23%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>2,26%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>99,59%</t>
+  </si>
+  <si>
+    <t>97,74%</t>
+  </si>
+  <si>
+    <t>99,19%</t>
+  </si>
+  <si>
+    <t>97,28%</t>
+  </si>
+  <si>
+    <t>99,38%</t>
+  </si>
+  <si>
+    <t>98,33%</t>
+  </si>
+  <si>
+    <t>99,8%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>98,77%</t>
+  </si>
+  <si>
+    <t>97,98%</t>
+  </si>
+  <si>
+    <t>99,34%</t>
+  </si>
+  <si>
+    <t>98,68%</t>
+  </si>
+  <si>
+    <t>97,8%</t>
+  </si>
+  <si>
+    <t>99,27%</t>
+  </si>
+  <si>
+    <t>98,2%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según si su peso es bastante mayor de lo normal en relación con su altura en 2012 (Tasa respuesta: 91,33%)</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>5,85%</t>
+  </si>
+  <si>
+    <t>3,39%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>8,93%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>5,54%</t>
+  </si>
+  <si>
+    <t>98,35%</t>
+  </si>
+  <si>
+    <t>94,15%</t>
+  </si>
+  <si>
+    <t>96,61%</t>
+  </si>
+  <si>
+    <t>91,07%</t>
+  </si>
+  <si>
+    <t>99,08%</t>
+  </si>
+  <si>
+    <t>97,44%</t>
+  </si>
+  <si>
+    <t>94,46%</t>
+  </si>
+  <si>
+    <t>98,87%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>3,02%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>98,21%</t>
+  </si>
+  <si>
+    <t>96,98%</t>
+  </si>
+  <si>
+    <t>99,11%</t>
+  </si>
+  <si>
+    <t>97,87%</t>
+  </si>
+  <si>
+    <t>96,32%</t>
+  </si>
+  <si>
+    <t>98,96%</t>
+  </si>
+  <si>
+    <t>98,04%</t>
+  </si>
+  <si>
+    <t>97,14%</t>
+  </si>
+  <si>
+    <t>98,69%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>3,27%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>98,71%</t>
+  </si>
+  <si>
+    <t>96,5%</t>
+  </si>
+  <si>
+    <t>99,61%</t>
+  </si>
+  <si>
+    <t>99,02%</t>
+  </si>
+  <si>
+    <t>96,73%</t>
+  </si>
+  <si>
+    <t>98,86%</t>
+  </si>
+  <si>
+    <t>97,46%</t>
+  </si>
+  <si>
+    <t>99,57%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>3,22%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>98,34%</t>
+  </si>
+  <si>
+    <t>97,43%</t>
+  </si>
+  <si>
+    <t>99,03%</t>
+  </si>
+  <si>
+    <t>96,78%</t>
+  </si>
+  <si>
+    <t>98,76%</t>
+  </si>
+  <si>
+    <t>98,17%</t>
+  </si>
+  <si>
+    <t>97,52%</t>
+  </si>
+  <si>
+    <t>98,74%</t>
+  </si>
+  <si>
+    <t>Menores según si su peso es bastante mayor de lo normal en relación con su altura en 2016 (Tasa respuesta: 89,7%)</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>7,4%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>7,57%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>5,44%</t>
+  </si>
+  <si>
+    <t>97,82%</t>
+  </si>
+  <si>
+    <t>92,6%</t>
+  </si>
+  <si>
+    <t>98,51%</t>
+  </si>
+  <si>
+    <t>92,43%</t>
+  </si>
+  <si>
+    <t>98,13%</t>
+  </si>
+  <si>
+    <t>94,56%</t>
+  </si>
+  <si>
+    <t>99,43%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>98,92%</t>
+  </si>
+  <si>
+    <t>97,83%</t>
+  </si>
+  <si>
+    <t>99,54%</t>
+  </si>
+  <si>
+    <t>99,0%</t>
+  </si>
+  <si>
+    <t>98,26%</t>
+  </si>
+  <si>
+    <t>99,42%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>99,63%</t>
+  </si>
+  <si>
+    <t>97,93%</t>
+  </si>
+  <si>
+    <t>99,14%</t>
+  </si>
+  <si>
+    <t>97,01%</t>
+  </si>
+  <si>
+    <t>99,4%</t>
+  </si>
+  <si>
+    <t>99,81%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>98,23%</t>
+  </si>
+  <si>
+    <t>99,5%</t>
+  </si>
+  <si>
+    <t>98,99%</t>
+  </si>
+  <si>
+    <t>99,45%</t>
+  </si>
+  <si>
+    <t>99,37%</t>
+  </si>
+  <si>
+    <t>Menores según si su peso es bastante mayor de lo normal en relación con su altura en 2023 (Tasa respuesta: 99,53%)</t>
+  </si>
+  <si>
+    <t>8,01%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>4,11%</t>
+  </si>
+  <si>
+    <t>91,99%</t>
+  </si>
+  <si>
+    <t>97,26%</t>
+  </si>
+  <si>
+    <t>95,89%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>98,98%</t>
+  </si>
+  <si>
+    <t>97,84%</t>
+  </si>
+  <si>
+    <t>99,53%</t>
+  </si>
+  <si>
+    <t>98,25%</t>
+  </si>
+  <si>
+    <t>96,7%</t>
+  </si>
+  <si>
+    <t>99,2%</t>
+  </si>
+  <si>
+    <t>98,63%</t>
+  </si>
+  <si>
+    <t>97,9%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>3,18%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
     <t>0,83%</t>
   </si>
   <si>
-    <t>7,95%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>5,7%</t>
-  </si>
-  <si>
-    <t>2,5%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>5,33%</t>
-  </si>
-  <si>
-    <t>96,8%</t>
-  </si>
-  <si>
-    <t>92,05%</t>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>99,47%</t>
+  </si>
+  <si>
+    <t>96,82%</t>
+  </si>
+  <si>
+    <t>98,83%</t>
   </si>
   <si>
     <t>99,17%</t>
   </si>
   <si>
-    <t>98,18%</t>
-  </si>
-  <si>
-    <t>94,3%</t>
-  </si>
-  <si>
-    <t>97,5%</t>
-  </si>
-  <si>
-    <t>94,67%</t>
-  </si>
-  <si>
-    <t>99,07%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>2,51%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>98,85%</t>
-  </si>
-  <si>
-    <t>97,82%</t>
-  </si>
-  <si>
-    <t>99,52%</t>
-  </si>
-  <si>
-    <t>98,59%</t>
-  </si>
-  <si>
-    <t>97,49%</t>
-  </si>
-  <si>
-    <t>99,35%</t>
-  </si>
-  <si>
-    <t>98,73%</t>
-  </si>
-  <si>
     <t>97,96%</t>
   </si>
   <si>
-    <t>99,22%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>2,83%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>99,59%</t>
-  </si>
-  <si>
-    <t>97,95%</t>
-  </si>
-  <si>
-    <t>99,19%</t>
-  </si>
-  <si>
-    <t>97,17%</t>
-  </si>
-  <si>
-    <t>99,38%</t>
-  </si>
-  <si>
-    <t>98,34%</t>
-  </si>
-  <si>
-    <t>99,8%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>98,77%</t>
-  </si>
-  <si>
-    <t>97,99%</t>
-  </si>
-  <si>
-    <t>98,68%</t>
-  </si>
-  <si>
-    <t>97,79%</t>
-  </si>
-  <si>
-    <t>99,26%</t>
-  </si>
-  <si>
-    <t>98,2%</t>
-  </si>
-  <si>
-    <t>99,14%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Menores según si su peso es bastante mayor de lo normal en relación con su altura en 2012 (Tasa respuesta: 91,33%)</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>5,21%</t>
-  </si>
-  <si>
-    <t>3,39%</t>
+    <t>99,75%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
   </si>
   <si>
     <t>0,82%</t>
   </si>
   <si>
-    <t>7,8%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>5,29%</t>
-  </si>
-  <si>
-    <t>98,35%</t>
-  </si>
-  <si>
-    <t>94,79%</t>
-  </si>
-  <si>
-    <t>96,61%</t>
-  </si>
-  <si>
-    <t>92,2%</t>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>99,01%</t>
+  </si>
+  <si>
+    <t>99,49%</t>
+  </si>
+  <si>
+    <t>98,52%</t>
+  </si>
+  <si>
+    <t>97,42%</t>
   </si>
   <si>
     <t>99,18%</t>
   </si>
   <si>
-    <t>97,44%</t>
-  </si>
-  <si>
-    <t>94,71%</t>
-  </si>
-  <si>
-    <t>98,81%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>3,07%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>3,53%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>98,21%</t>
-  </si>
-  <si>
-    <t>96,93%</t>
-  </si>
-  <si>
-    <t>99,01%</t>
-  </si>
-  <si>
-    <t>97,87%</t>
-  </si>
-  <si>
-    <t>96,47%</t>
-  </si>
-  <si>
-    <t>98,89%</t>
-  </si>
-  <si>
-    <t>98,04%</t>
-  </si>
-  <si>
-    <t>97,1%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>3,68%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>3,41%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>98,71%</t>
-  </si>
-  <si>
-    <t>96,32%</t>
-  </si>
-  <si>
-    <t>99,6%</t>
-  </si>
-  <si>
-    <t>99,02%</t>
-  </si>
-  <si>
-    <t>96,59%</t>
-  </si>
-  <si>
-    <t>98,86%</t>
-  </si>
-  <si>
-    <t>97,45%</t>
-  </si>
-  <si>
-    <t>99,56%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>97,41%</t>
-  </si>
-  <si>
-    <t>97,98%</t>
-  </si>
-  <si>
-    <t>98,17%</t>
-  </si>
-  <si>
-    <t>Menores según si su peso es bastante mayor de lo normal en relación con su altura en 2015 (Tasa respuesta: 89,7%)</t>
-  </si>
-  <si>
-    <t>7,45%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>7,76%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>5,81%</t>
-  </si>
-  <si>
-    <t>92,55%</t>
-  </si>
-  <si>
-    <t>98,51%</t>
-  </si>
-  <si>
-    <t>92,24%</t>
-  </si>
-  <si>
-    <t>98,13%</t>
-  </si>
-  <si>
-    <t>94,19%</t>
-  </si>
-  <si>
-    <t>99,43%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>98,92%</t>
-  </si>
-  <si>
-    <t>99,54%</t>
-  </si>
-  <si>
-    <t>99,0%</t>
-  </si>
-  <si>
-    <t>99,57%</t>
-  </si>
-  <si>
-    <t>98,96%</t>
-  </si>
-  <si>
-    <t>98,31%</t>
-  </si>
-  <si>
-    <t>99,42%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>3,32%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>99,63%</t>
-  </si>
-  <si>
-    <t>97,85%</t>
-  </si>
-  <si>
-    <t>96,68%</t>
-  </si>
-  <si>
-    <t>99,4%</t>
-  </si>
-  <si>
-    <t>98,06%</t>
-  </si>
-  <si>
-    <t>99,81%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>98,22%</t>
-  </si>
-  <si>
-    <t>99,5%</t>
-  </si>
-  <si>
-    <t>98,99%</t>
-  </si>
-  <si>
-    <t>99,49%</t>
-  </si>
-  <si>
-    <t>98,49%</t>
-  </si>
-  <si>
-    <t>99,36%</t>
-  </si>
-  <si>
-    <t>Menores según si su peso es bastante mayor de lo normal en relación con su altura en 2023 (Tasa respuesta: 99,53%)</t>
-  </si>
-  <si>
-    <t>7,85%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>4,33%</t>
-  </si>
-  <si>
-    <t>92,15%</t>
-  </si>
-  <si>
-    <t>97,26%</t>
-  </si>
-  <si>
-    <t>95,67%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>3,12%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>98,98%</t>
-  </si>
-  <si>
-    <t>98,25%</t>
-  </si>
-  <si>
-    <t>96,88%</t>
-  </si>
-  <si>
-    <t>99,16%</t>
-  </si>
-  <si>
-    <t>98,63%</t>
-  </si>
-  <si>
-    <t>97,75%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>2,97%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>3,81%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>99,47%</t>
-  </si>
-  <si>
-    <t>97,03%</t>
-  </si>
-  <si>
-    <t>98,83%</t>
-  </si>
-  <si>
-    <t>96,19%</t>
-  </si>
-  <si>
-    <t>99,76%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>98,23%</t>
-  </si>
-  <si>
-    <t>99,48%</t>
-  </si>
-  <si>
-    <t>98,52%</t>
-  </si>
-  <si>
-    <t>97,47%</t>
-  </si>
-  <si>
-    <t>99,28%</t>
-  </si>
-  <si>
     <t>98,78%</t>
-  </si>
-  <si>
-    <t>98,11%</t>
   </si>
 </sst>
 </file>
@@ -1152,7 +1194,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE9CC679-5A98-4D80-8601-8347BAAAA7E0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB0C2233-868E-4B9E-9780-B17404DAB95C}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1893,10 +1935,10 @@
         <v>70</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>41</v>
+        <v>71</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H16" s="7">
         <v>13</v>
@@ -1905,13 +1947,13 @@
         <v>8832</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="M16" s="7">
         <v>26</v>
@@ -1923,7 +1965,7 @@
         <v>43</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>75</v>
+        <v>58</v>
       </c>
       <c r="Q16" s="7" t="s">
         <v>76</v>
@@ -1947,7 +1989,7 @@
         <v>78</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>51</v>
+        <v>79</v>
       </c>
       <c r="H17" s="7">
         <v>989</v>
@@ -1956,13 +1998,13 @@
         <v>661681</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="M17" s="7">
         <v>2051</v>
@@ -1974,10 +2016,10 @@
         <v>52</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>83</v>
+        <v>65</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2053,7 +2095,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{885229B7-D6D9-4A9A-AEAB-C770CEC2C36A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A99B9346-9468-420B-BB99-EE07213F61E2}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2514,10 +2556,10 @@
         <v>108</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>72</v>
+        <v>109</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2532,13 +2574,13 @@
         <v>441293</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="H11" s="7">
         <v>581</v>
@@ -2547,13 +2589,13 @@
         <v>400833</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="M11" s="7">
         <v>1213</v>
@@ -2562,13 +2604,13 @@
         <v>842126</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>79</v>
+        <v>119</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2636,13 +2678,13 @@
         <v>2108</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="H13" s="7">
         <v>2</v>
@@ -2651,13 +2693,13 @@
         <v>1514</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="M13" s="7">
         <v>5</v>
@@ -2666,13 +2708,13 @@
         <v>3622</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2687,13 +2729,13 @@
         <v>161588</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="H14" s="7">
         <v>217</v>
@@ -2702,10 +2744,10 @@
         <v>152717</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>16</v>
@@ -2717,13 +2759,13 @@
         <v>314306</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2791,13 +2833,13 @@
         <v>11419</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>62</v>
+        <v>136</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>103</v>
+        <v>137</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="H16" s="7">
         <v>18</v>
@@ -2806,13 +2848,13 @@
         <v>13052</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>135</v>
+        <v>72</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>43</v>
+        <v>139</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>20</v>
+        <v>140</v>
       </c>
       <c r="M16" s="7">
         <v>35</v>
@@ -2821,13 +2863,13 @@
         <v>24471</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>118</v>
+        <v>142</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>25</v>
+        <v>143</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2842,13 +2884,13 @@
         <v>677911</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>68</v>
+        <v>144</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>137</v>
+        <v>145</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>112</v>
+        <v>146</v>
       </c>
       <c r="H17" s="7">
         <v>914</v>
@@ -2857,13 +2899,13 @@
         <v>633305</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>138</v>
+        <v>78</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>28</v>
+        <v>147</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>52</v>
+        <v>148</v>
       </c>
       <c r="M17" s="7">
         <v>1882</v>
@@ -2872,13 +2914,13 @@
         <v>1311215</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>139</v>
+        <v>149</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>33</v>
+        <v>150</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>126</v>
+        <v>151</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2954,7 +2996,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C83D63EC-9D3A-4E7D-973E-C455BCA396B1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4562C87-B0BE-4AA2-9C0D-DBBBE4FCE8CD}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2971,7 +3013,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>140</v>
+        <v>152</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3215,13 +3257,13 @@
         <v>1326</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>39</v>
+        <v>153</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>141</v>
+        <v>154</v>
       </c>
       <c r="H7" s="7">
         <v>1</v>
@@ -3230,13 +3272,13 @@
         <v>753</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>142</v>
+        <v>155</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>143</v>
+        <v>156</v>
       </c>
       <c r="M7" s="7">
         <v>3</v>
@@ -3245,13 +3287,13 @@
         <v>2079</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>144</v>
+        <v>157</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>145</v>
+        <v>158</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>146</v>
+        <v>159</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3266,10 +3308,10 @@
         <v>59488</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>47</v>
+        <v>160</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>147</v>
+        <v>161</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>16</v>
@@ -3281,10 +3323,10 @@
         <v>49696</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>148</v>
+        <v>162</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>149</v>
+        <v>163</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>16</v>
@@ -3296,13 +3338,13 @@
         <v>109184</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>150</v>
+        <v>164</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>151</v>
+        <v>165</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>152</v>
+        <v>166</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3370,13 +3412,13 @@
         <v>4710</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>153</v>
+        <v>167</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>154</v>
+        <v>168</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>105</v>
+        <v>169</v>
       </c>
       <c r="H10" s="7">
         <v>7</v>
@@ -3385,13 +3427,13 @@
         <v>4276</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>155</v>
+        <v>170</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>156</v>
+        <v>126</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="M10" s="7">
         <v>14</v>
@@ -3400,13 +3442,13 @@
         <v>8986</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>157</v>
+        <v>106</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>158</v>
+        <v>171</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>159</v>
+        <v>172</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3421,13 +3463,13 @@
         <v>432696</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>160</v>
+        <v>173</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>113</v>
+        <v>174</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>161</v>
+        <v>175</v>
       </c>
       <c r="H11" s="7">
         <v>637</v>
@@ -3436,13 +3478,13 @@
         <v>421535</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>162</v>
+        <v>176</v>
       </c>
       <c r="K11" s="7" t="s">
         <v>78</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>163</v>
+        <v>135</v>
       </c>
       <c r="M11" s="7">
         <v>1251</v>
@@ -3451,13 +3493,13 @@
         <v>854231</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>164</v>
+        <v>116</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>165</v>
+        <v>177</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>166</v>
+        <v>178</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3525,13 +3567,13 @@
         <v>626</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>167</v>
+        <v>179</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>168</v>
+        <v>180</v>
       </c>
       <c r="H13" s="7">
         <v>2</v>
@@ -3540,13 +3582,13 @@
         <v>1343</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>75</v>
+        <v>181</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>169</v>
+        <v>182</v>
       </c>
       <c r="M13" s="7">
         <v>3</v>
@@ -3555,13 +3597,13 @@
         <v>1969</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>170</v>
+        <v>183</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>171</v>
+        <v>184</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>172</v>
+        <v>136</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3576,10 +3618,10 @@
         <v>168552</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>173</v>
+        <v>185</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>174</v>
+        <v>186</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>16</v>
@@ -3591,10 +3633,10 @@
         <v>155619</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>83</v>
+        <v>187</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>175</v>
+        <v>188</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>16</v>
@@ -3606,13 +3648,13 @@
         <v>324171</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>176</v>
+        <v>189</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>177</v>
+        <v>144</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>178</v>
+        <v>190</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3680,13 +3722,13 @@
         <v>6661</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>155</v>
+        <v>170</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>179</v>
+        <v>191</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>180</v>
+        <v>192</v>
       </c>
       <c r="H16" s="7">
         <v>10</v>
@@ -3695,13 +3737,13 @@
         <v>6372</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>181</v>
+        <v>193</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>182</v>
+        <v>194</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>102</v>
+        <v>23</v>
       </c>
       <c r="M16" s="7">
         <v>20</v>
@@ -3710,13 +3752,13 @@
         <v>13033</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>155</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>183</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3731,13 +3773,13 @@
         <v>660737</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>162</v>
+        <v>176</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>185</v>
+        <v>196</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>186</v>
+        <v>197</v>
       </c>
       <c r="H17" s="7">
         <v>944</v>
@@ -3746,13 +3788,13 @@
         <v>626850</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>187</v>
+        <v>198</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>110</v>
+        <v>31</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>188</v>
+        <v>199</v>
       </c>
       <c r="M17" s="7">
         <v>1887</v>
@@ -3761,13 +3803,13 @@
         <v>1287587</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>162</v>
       </c>
-      <c r="P17" s="7" t="s">
-        <v>189</v>
-      </c>
       <c r="Q17" s="7" t="s">
-        <v>190</v>
+        <v>200</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3843,7 +3885,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A423D6FC-2E99-43F0-8E6B-6775C3D216B6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9745ED34-B4E4-4B57-8F38-5B4EAC00C4E0}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3860,7 +3902,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>191</v>
+        <v>201</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4122,7 +4164,7 @@
         <v>11</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>192</v>
+        <v>202</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
@@ -4137,7 +4179,7 @@
         <v>12</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>193</v>
+        <v>203</v>
       </c>
       <c r="M7" s="7">
         <v>2</v>
@@ -4146,13 +4188,13 @@
         <v>1254</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="P7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>194</v>
+        <v>204</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4167,10 +4209,10 @@
         <v>57503</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>195</v>
+        <v>205</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>16</v>
@@ -4185,7 +4227,7 @@
         <v>16</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>196</v>
+        <v>206</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>18</v>
@@ -4197,10 +4239,10 @@
         <v>108705</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>197</v>
+        <v>207</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>16</v>
@@ -4271,13 +4313,13 @@
         <v>4993</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>198</v>
+        <v>208</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>156</v>
+        <v>209</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>57</v>
+        <v>210</v>
       </c>
       <c r="H10" s="7">
         <v>10</v>
@@ -4286,13 +4328,13 @@
         <v>7827</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>199</v>
+        <v>211</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>200</v>
+        <v>212</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>201</v>
+        <v>213</v>
       </c>
       <c r="M10" s="7">
         <v>17</v>
@@ -4301,13 +4343,13 @@
         <v>12820</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>202</v>
+        <v>214</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>21</v>
+        <v>212</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>203</v>
+        <v>215</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4322,13 +4364,13 @@
         <v>485189</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>204</v>
+        <v>216</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>64</v>
+        <v>217</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>163</v>
+        <v>218</v>
       </c>
       <c r="H11" s="7">
         <v>629</v>
@@ -4337,13 +4379,13 @@
         <v>438511</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>205</v>
+        <v>219</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>206</v>
+        <v>220</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>207</v>
+        <v>221</v>
       </c>
       <c r="M11" s="7">
         <v>1275</v>
@@ -4352,13 +4394,13 @@
         <v>923701</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>208</v>
+        <v>222</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>209</v>
+        <v>223</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>30</v>
+        <v>221</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4426,13 +4468,13 @@
         <v>912</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>210</v>
+        <v>224</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>211</v>
+        <v>225</v>
       </c>
       <c r="H13" s="7">
         <v>2</v>
@@ -4441,13 +4483,13 @@
         <v>1774</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>212</v>
+        <v>226</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>213</v>
+        <v>122</v>
       </c>
       <c r="M13" s="7">
         <v>3</v>
@@ -4456,13 +4498,13 @@
         <v>2686</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>21</v>
+        <v>227</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>214</v>
+        <v>228</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>42</v>
+        <v>229</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4477,10 +4519,10 @@
         <v>172275</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>215</v>
+        <v>230</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>216</v>
+        <v>231</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>16</v>
@@ -4492,10 +4534,10 @@
         <v>149596</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>217</v>
+        <v>232</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>218</v>
+        <v>129</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>16</v>
@@ -4507,13 +4549,13 @@
         <v>321871</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>30</v>
+        <v>233</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>50</v>
+        <v>234</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>219</v>
+        <v>235</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4581,13 +4623,13 @@
         <v>7158</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>103</v>
+        <v>236</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>220</v>
+        <v>237</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>221</v>
+        <v>192</v>
       </c>
       <c r="H16" s="7">
         <v>12</v>
@@ -4596,13 +4638,13 @@
         <v>9601</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>222</v>
+        <v>238</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>223</v>
+        <v>239</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>224</v>
+        <v>240</v>
       </c>
       <c r="M16" s="7">
         <v>22</v>
@@ -4611,13 +4653,13 @@
         <v>16759</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>225</v>
+        <v>241</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>44</v>
+        <v>212</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>226</v>
+        <v>141</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4632,13 +4674,13 @@
         <v>714969</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>112</v>
+        <v>242</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>227</v>
+        <v>196</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>228</v>
+        <v>243</v>
       </c>
       <c r="H17" s="7">
         <v>927</v>
@@ -4647,13 +4689,13 @@
         <v>640480</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>229</v>
+        <v>244</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>230</v>
+        <v>245</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>231</v>
+        <v>246</v>
       </c>
       <c r="M17" s="7">
         <v>1889</v>
@@ -4662,13 +4704,13 @@
         <v>1355449</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>232</v>
+        <v>247</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>233</v>
+        <v>149</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>54</v>
+        <v>221</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
